--- a/NformTester/NformTester/Keywordscripts/700.30.70_ActionHistoryforAllAlarmTypeWithTheSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.70_ActionHistoryforAllAlarmTypeWithTheSpecifiedSeparator.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="883">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3939,6 +3939,10 @@
   <si>
     <t>"C:\result.txt"</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4524,8 +4528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5830,7 +5834,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>800</v>
@@ -5856,7 +5860,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>800</v>
@@ -6232,7 +6236,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>800</v>
@@ -6258,7 +6262,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>800</v>

--- a/NformTester/NformTester/Keywordscripts/700.30.70_ActionHistoryforAllAlarmTypeWithTheSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.70_ActionHistoryforAllAlarmTypeWithTheSpecifiedSeparator.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7897" uniqueCount="884">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3943,6 +3943,10 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4526,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4624,24 +4628,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
+        <v>864</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4658,24 +4656,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4685,11 +4689,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4699,7 +4707,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="2" t="s">
         <v>827</v>
       </c>
@@ -4709,56 +4717,56 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D6" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>850</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="24"/>
+      <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
+      <c r="D7" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>846</v>
       </c>
@@ -4766,20 +4774,14 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="D8" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -4796,15 +4798,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="21"/>
@@ -4829,11 +4831,11 @@
       <c r="D10" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>348</v>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>2</v>
@@ -4856,22 +4858,20 @@
       <c r="D11" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="E11" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="19"/>
       <c r="O11" s="17"/>
@@ -4891,13 +4891,13 @@
         <v>352</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4922,12 +4922,14 @@
         <v>352</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>853</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4948,10 +4950,10 @@
         <v>830</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2</v>
@@ -4980,7 +4982,7 @@
         <v>358</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2</v>
@@ -5006,17 +5008,15 @@
         <v>830</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>853</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -5040,7 +5040,7 @@
         <v>403</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
@@ -5071,13 +5071,13 @@
         <v>403</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>398</v>
+        <v>221</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5102,13 +5102,13 @@
         <v>403</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>854</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -5135,12 +5135,14 @@
         <v>403</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>854</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>855</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5157,11 +5159,11 @@
       <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="20" t="s">
         <v>830</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>17</v>
@@ -5189,11 +5191,11 @@
       <c r="D22" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>348</v>
+      <c r="E22" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -5207,50 +5209,52 @@
       <c r="N22" s="19"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="D23" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="18"/>
       <c r="N23" s="19"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="24"/>
+      <c r="D24" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15">
@@ -5259,18 +5263,16 @@
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="D25" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5290,7 +5292,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>2</v>
@@ -5307,21 +5309,19 @@
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>858</v>
-      </c>
+      <c r="E27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5340,12 +5340,14 @@
         <v>348</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5360,21 +5362,17 @@
       <c r="D29" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>433</v>
+      <c r="E29" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>434</v>
+        <v>350</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>879</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -5392,15 +5390,17 @@
         <v>433</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -5421,10 +5421,10 @@
         <v>113</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -5444,18 +5444,20 @@
         <v>433</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>436</v>
+        <v>113</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>870</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="14"/>
+      <c r="N32" s="24"/>
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="3">
@@ -5468,7 +5470,7 @@
         <v>433</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>2</v>
@@ -5488,8 +5490,8 @@
       <c r="D34" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>348</v>
+      <c r="E34" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>100</v>
@@ -5510,15 +5512,17 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -5527,15 +5531,19 @@
       <c r="M35" s="3"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="3:15" ht="15">
+    <row r="36" spans="3:15">
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -5545,22 +5553,16 @@
       <c r="M36" s="3"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" ht="15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="D37" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5580,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>2</v>
@@ -5601,17 +5603,15 @@
         <v>830</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>879</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5630,12 +5630,14 @@
         <v>620</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5651,10 +5653,10 @@
         <v>830</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>2</v>
@@ -5679,7 +5681,7 @@
         <v>629</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>17</v>
+        <v>631</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2</v>
@@ -5701,10 +5703,10 @@
         <v>830</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2</v>
@@ -5722,57 +5724,57 @@
         <v>43</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+        <v>830</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="3:15" ht="15">
+    <row r="45" spans="3:15">
       <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" ht="15">
       <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D46" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -5792,7 +5794,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>2</v>
@@ -5816,7 +5818,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>2</v>
@@ -5834,22 +5836,20 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="J49" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -5868,7 +5868,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>861</v>
@@ -5886,20 +5886,22 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>830</v>
+        <v>882</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J51" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -5916,7 +5918,7 @@
         <v>747</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>417</v>
+        <v>741</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>2</v>
@@ -5943,17 +5945,11 @@
         <v>417</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>878</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="J53" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -5970,7 +5966,7 @@
         <v>747</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>7</v>
@@ -6000,14 +5996,20 @@
         <v>747</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>743</v>
+        <v>416</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="J55" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -6024,7 +6026,7 @@
         <v>747</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>2</v>
@@ -6042,15 +6044,17 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -6064,20 +6068,16 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>863</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -6096,12 +6096,14 @@
         <v>747</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>749</v>
+        <v>633</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>863</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6120,14 +6122,12 @@
         <v>747</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>880</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -6146,13 +6146,13 @@
         <v>747</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>398</v>
+        <v>737</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -6172,12 +6172,14 @@
         <v>747</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>864</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -6190,15 +6192,17 @@
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -6212,17 +6216,15 @@
         <v>63</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -6236,22 +6238,20 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>882</v>
+        <v>830</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="J65" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -6270,7 +6270,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>861</v>
@@ -6289,7 +6289,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>800</v>
@@ -6297,13 +6297,13 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="J67" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -6327,7 +6327,7 @@
         <v>864</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="J68" s="3" t="b">
         <v>1</v>
@@ -6354,7 +6354,7 @@
         <v>864</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J69" s="3" t="b">
         <v>1</v>
@@ -6380,7 +6380,7 @@
         <v>864</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J70" s="3" t="b">
         <v>1</v>
@@ -6406,7 +6406,7 @@
         <v>864</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>1</v>
@@ -6432,7 +6432,7 @@
         <v>864</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6458,7 +6458,7 @@
         <v>864</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>864</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6494,42 +6494,44 @@
       <c r="M74" s="3"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="3:15" ht="15">
+    <row r="75" spans="3:15">
       <c r="C75" s="3">
         <v>74</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="E75" s="3"/>
+      <c r="D75" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="J75" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="3:15">
+    <row r="76" spans="3:15" ht="15">
       <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="D76" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -6541,13 +6543,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2</v>
@@ -6568,25 +6570,23 @@
         <v>867</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>868</v>
+        <v>19</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I78" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:15" ht="14.25">
+    <row r="79" spans="3:15">
       <c r="C79" s="3">
         <v>78</v>
       </c>
@@ -6597,12 +6597,14 @@
         <v>868</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -6610,23 +6612,23 @@
       <c r="M79" s="3"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="3:15">
+    <row r="80" spans="3:15" ht="14.25">
       <c r="C80" s="3">
         <v>79</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>628</v>
+      <c r="E80" s="21" t="s">
+        <v>868</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="21"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -6641,17 +6643,17 @@
       <c r="D81" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>868</v>
+      <c r="E81" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -6663,19 +6665,19 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>19</v>
+        <v>867</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>868</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -6692,10 +6694,10 @@
       <c r="E83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H83" s="3"/>
@@ -6713,18 +6715,16 @@
       <c r="D84" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E84" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>858</v>
-      </c>
+      <c r="E84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -6743,12 +6743,14 @@
         <v>348</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -6767,7 +6769,7 @@
         <v>348</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>2</v>
@@ -6780,9 +6782,47 @@
       <c r="M86" s="3"/>
       <c r="N86" s="14"/>
     </row>
+    <row r="87" spans="3:14">
+      <c r="C87" s="3">
+        <v>86</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="14"/>
+    </row>
+    <row r="88" spans="3:14">
+      <c r="C88" s="3">
+        <v>87</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N86">
+  <conditionalFormatting sqref="N2:N87">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6791,16 +6831,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G79:G86 G2:G77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80:G87 G2:G78">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H67:H74 E2:E86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H75 E2:E88 F3 F88">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76 D82:D86 D3:D4 D37:D44 D24:D35 D8:D22 D46:D74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D77 D83:D88 D3:D5 D38:D45 D25:D36 D9:D23 D47:D75">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F87">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.70_ActionHistoryforAllAlarmTypeWithTheSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.70_ActionHistoryforAllAlarmTypeWithTheSpecifiedSeparator.xlsx
@@ -3929,10 +3929,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3947,6 +3943,10 @@
   <si>
     <t>DeleteLocalFile</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4020,6 +4020,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4532,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4631,7 +4632,7 @@
         <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>864</v>
@@ -5108,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -5399,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5636,7 +5637,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -5860,7 +5861,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>800</v>
@@ -5886,7 +5887,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>800</v>
@@ -6152,7 +6153,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -6262,7 +6263,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>800</v>
@@ -6289,7 +6290,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>800</v>
@@ -6510,7 +6511,7 @@
         <v>864</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6814,7 +6815,7 @@
         <v>832</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>864</v>
